--- a/ExcelFiles/samp.xlsx
+++ b/ExcelFiles/samp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aashraf1\source\repos\BenchmarkingExcelPackages\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0D757BC-F1CD-4B92-B832-4A8682793763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{902D4523-BE0B-4EFF-AD2C-89075E1BD231}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="16875" windowHeight="10522" xr2:uid="{73F17451-9B42-4097-AB54-2531EB3A3165}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{73F17451-9B42-4097-AB54-2531EB3A3165}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>Hello</t>
   </si>
   <si>
     <t>World</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>cc</t>
   </si>
 </sst>
 </file>
@@ -391,22 +406,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A395FD42-5D52-4BCB-8C35-240F6AF3C97B}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
